--- a/RiskWISE_Import_Template_ProcessPlant.xlsx
+++ b/RiskWISE_Import_Template_ProcessPlant.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lab411\RBI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dat\Documents\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="382">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:AE1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,7 +1754,9 @@
       <c r="AE1" s="7"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>258</v>
+      </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
@@ -5865,7 +5867,7 @@
   <dimension ref="A1:AS1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11206,7 +11208,7 @@
   <dimension ref="A1:S1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11334,7 +11336,7 @@
   <dimension ref="A1:AB1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" activeCellId="1" sqref="A2:XFD2 A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16539,7 +16541,7 @@
   <dimension ref="A1:V1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19859,7 +19861,7 @@
   <dimension ref="A1:L1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/RiskWISE_Import_Template_ProcessPlant.xlsx
+++ b/RiskWISE_Import_Template_ProcessPlant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="382">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -1651,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5867,7 +5867,7 @@
   <dimension ref="A1:AS1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6013,7 +6013,10 @@
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13">
+        <f ca="1">NOW()</f>
+        <v>44141.776451736114</v>
+      </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C3" s="12"/>
@@ -11208,7 +11211,7 @@
   <dimension ref="A1:S1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11272,6 +11275,11 @@
         <v>99</v>
       </c>
       <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="1000" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
@@ -11335,8 +11343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11432,6 +11440,9 @@
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
+      <c r="K2">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -16541,7 +16552,7 @@
   <dimension ref="A1:V1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16614,6 +16625,11 @@
         <v>150</v>
       </c>
       <c r="V1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="1000" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
@@ -16714,7 +16730,7 @@
   <dimension ref="A1:Q1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16774,6 +16790,9 @@
       <c r="Q1" s="9"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
       <c r="J2" s="10"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -19860,8 +19879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19904,6 +19923,11 @@
         <v>182</v>
       </c>
       <c r="L1" s="9"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="1000" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>

--- a/RiskWISE_Import_Template_ProcessPlant.xlsx
+++ b/RiskWISE_Import_Template_ProcessPlant.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="1" r:id="rId1"/>
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:AE1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1757,10 @@
       <c r="B2" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10">
+        <f ca="1">NOW()</f>
+        <v>44141.789134953702</v>
+      </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
@@ -5866,8 +5869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS1002"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6015,7 +6018,7 @@
       <c r="D2" s="12"/>
       <c r="H2" s="13">
         <f ca="1">NOW()</f>
-        <v>44141.776451736114</v>
+        <v>44141.789135069441</v>
       </c>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.25">
@@ -19879,7 +19882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
